--- a/export_excel/static/files/HOJA REGISTRO ATENCION DIARIA AÑO 2020 HUARA INFANTIL.xlsx
+++ b/export_excel/static/files/HOJA REGISTRO ATENCION DIARIA AÑO 2020 HUARA INFANTIL.xlsx
@@ -10,7 +10,7 @@
     <sheet name="OCTUBRE2020" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'OCTUBRE2020'!$A$1:$K$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'OCTUBRE2020'!$A$1:$K$3</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,8 +572,63 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>ARIQUILDA</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>08-10-2020</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>Brayan Aaron Berna Rojas</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>17.655.577-7</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>CNS</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>CHILENA</t>
+        </is>
+      </c>
+      <c r="H3" s="3" t="inlineStr">
+        <is>
+          <t>MAPUCHE</t>
+        </is>
+      </c>
+      <c r="I3" s="3" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="J3" s="3" t="inlineStr">
+        <is>
+          <t>MENOR DE 1 MES</t>
+        </is>
+      </c>
+      <c r="K3" s="3" t="inlineStr">
+        <is>
+          <t>28 AÑOS</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K2"/>
+  <autoFilter ref="A1:K3"/>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>